--- a/output/ursus/2021/sheets/year_2021.xlsx
+++ b/output/ursus/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>51.31935483870967</v>
+        <v>51.56147494710957</v>
       </c>
       <c r="C2" t="n">
-        <v>44.57419354838709</v>
+        <v>45.52911737870326</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>50.11428571428572</v>
+        <v>50.45020330212024</v>
       </c>
       <c r="C3" t="n">
-        <v>39.40357142857142</v>
+        <v>43.94676104413912</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>51.31612903225807</v>
+        <v>51.43633648110794</v>
       </c>
       <c r="C4" t="n">
-        <v>38.7741935483871</v>
+        <v>43.96726232761345</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>45.02</v>
+        <v>52.05507834172177</v>
       </c>
       <c r="C5" t="n">
-        <v>30.38666666666666</v>
+        <v>46.68372238283476</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.42903225806452</v>
+        <v>53.69038227843703</v>
       </c>
       <c r="C6" t="n">
-        <v>39.11290322580646</v>
+        <v>47.28723315864373</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>52.14666666666667</v>
+        <v>54.37080465440467</v>
       </c>
       <c r="C7" t="n">
-        <v>1.673333333333333</v>
+        <v>1.904349726385412</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>56.09677419354838</v>
+        <v>56.14425271632557</v>
       </c>
       <c r="C8" t="n">
-        <v>49.29354838709677</v>
+        <v>49.58501645523465</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.89677419354838</v>
+        <v>56.94093095945803</v>
       </c>
       <c r="C9" t="n">
-        <v>50.14193548387098</v>
+        <v>50.47860577265611</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>55.10333333333333</v>
+        <v>57.04617168700489</v>
       </c>
       <c r="C10" t="n">
-        <v>48.93666666666666</v>
+        <v>50.87565209274359</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>55.86451612903226</v>
+        <v>56.50914344886334</v>
       </c>
       <c r="C11" t="n">
-        <v>49.64838709677419</v>
+        <v>49.9482496255819</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>55.81000000000001</v>
+        <v>55.99347701023233</v>
       </c>
       <c r="C12" t="n">
-        <v>49.28</v>
+        <v>49.61964085614009</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>55.29677419354838</v>
+        <v>55.49410003779102</v>
       </c>
       <c r="C13" t="n">
-        <v>47.51935483870967</v>
+        <v>49.65276764900704</v>
       </c>
     </row>
   </sheetData>
